--- a/Team 10.xlsx
+++ b/Team 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhongvuong/Documents/GitHub/Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB068B-088A-6E43-B8AB-1988B200626F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA5A76-E631-FB4E-AA14-455972739265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0F92D7AB-35EC-AF4E-BD05-6588DE0757E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>SHARATH</t>
+  </si>
+  <si>
+    <t>THALIA</t>
+  </si>
+  <si>
+    <t>ABBY</t>
+  </si>
+  <si>
+    <t>ISSAC</t>
+  </si>
+  <si>
+    <t>NEWTON</t>
   </si>
 </sst>
 </file>
@@ -421,7 +433,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,18 +512,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
